--- a/EveToBMW/Template/电芯字段映射对照-4050.xlsx
+++ b/EveToBMW/Template/电芯字段映射对照-4050.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FF604C-2C23-4D41-B9B6-35F65EAFFC80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0FB026-9F17-4C5F-816B-3CADEF6385E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1231,7 +1231,7 @@
     <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="181" formatCode="0.000000_);[Red]\(0.000000\)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1558,15 +1558,42 @@
     <xf numFmtId="178" fontId="9" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1583,33 +1610,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1900,10 +1900,10 @@
   <dimension ref="A1:AX9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.21875" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" customWidth="1"/>
@@ -1917,99 +1917,99 @@
     <col min="50" max="50" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="3" customFormat="1" ht="85.5" customHeight="1">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:50" s="3" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="55" t="s">
         <v>336</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="53" t="s">
+      <c r="N1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="53" t="s">
+      <c r="O1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="55" t="s">
+      <c r="P1" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="Q1" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="R1" s="53" t="s">
+      <c r="R1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="S1" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="T1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="50" t="s">
+      <c r="U1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="50" t="s">
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="43"/>
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="43"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="52"/>
+      <c r="AU1" s="43"/>
+      <c r="AV1" s="44"/>
       <c r="AW1" s="1" t="s">
         <v>17</v>
       </c>
@@ -2017,27 +2017,27 @@
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:50" s="3" customFormat="1" ht="38.549999999999997" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="39"/>
+    <row r="2" spans="1:50" s="3" customFormat="1" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="41"/>
       <c r="U2" s="4" t="s">
         <v>18</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="28" customFormat="1" ht="102.6" customHeight="1">
+    <row r="3" spans="1:50" s="28" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>337</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:50" s="28" customFormat="1" ht="42" customHeight="1">
+    <row r="4" spans="1:50" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>338</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:50" s="3" customFormat="1" ht="34.200000000000003" customHeight="1">
+    <row r="5" spans="1:50" s="3" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>90.94</v>
       </c>
     </row>
-    <row r="6" spans="1:50" s="3" customFormat="1" ht="31.5" customHeight="1">
+    <row r="6" spans="1:50" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>90.95</v>
       </c>
     </row>
-    <row r="7" spans="1:50" s="3" customFormat="1" ht="31.5" customHeight="1">
+    <row r="7" spans="1:50" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>90.96</v>
       </c>
     </row>
-    <row r="8" spans="1:50" s="3" customFormat="1" ht="31.5" customHeight="1">
+    <row r="8" spans="1:50" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>90.93</v>
       </c>
     </row>
-    <row r="9" spans="1:50" s="3" customFormat="1" ht="31.5" customHeight="1">
+    <row r="9" spans="1:50" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -3185,16 +3185,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:AS1"/>
-    <mergeCell ref="AT1:AV1"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -3207,6 +3197,16 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:AS1"/>
+    <mergeCell ref="AT1:AV1"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3222,7 +3222,7 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
     <col min="8" max="8" width="17.5546875" customWidth="1"/>
@@ -3232,7 +3232,7 @@
     <col min="30" max="30" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:155">
+    <row r="1" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:155">
+    <row r="2" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>270</v>
       </c>
@@ -3964,7 +3964,7 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5546875" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
@@ -3973,7 +3973,7 @@
     <col min="9" max="9" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="78">
+    <row r="1" spans="1:48" ht="78" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>60</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:48" ht="39.6">
+    <row r="2" spans="1:48" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>2305150027</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>90.94</v>
       </c>
     </row>
-    <row r="3" spans="1:48" ht="39.6">
+    <row r="3" spans="1:48" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2305150027</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>90.95</v>
       </c>
     </row>
-    <row r="4" spans="1:48" ht="39.6">
+    <row r="4" spans="1:48" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2305150027</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>90.96</v>
       </c>
     </row>
-    <row r="5" spans="1:48" ht="39.6">
+    <row r="5" spans="1:48" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2305150027</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>90.93</v>
       </c>
     </row>
-    <row r="6" spans="1:48" ht="39.6">
+    <row r="6" spans="1:48" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2305150027</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>90.94</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>""""&amp;A1&amp;""":{""values"":["""&amp;A2&amp;""","""&amp;A3&amp;""","""&amp;A4&amp;""","""&amp;A5&amp;""","""&amp;A6&amp;"""]},"</f>
         <v>"cell_supplier_pallet_id":{"values":["2305150027","2305150027","2305150027","2305150027","2305150027"]},</v>
